--- a/log_history/Y2_B2526_Pharmacology_scanner1761642938005_f3364912465fd3d872c6231d7cc3ec0334e44485c5ece7a434497ac1c64010aa.xlsx
+++ b/log_history/Y2_B2526_Pharmacology_scanner1761642938005_f3364912465fd3d872c6231d7cc3ec0334e44485c5ece7a434497ac1c64010aa.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr codeName="ThisWorkbook"/>
   <sheets>
-    <sheet name="Session" sheetId="1" r:id="rId1"/>
+    <sheet name="Pharmacology" sheetId="1" r:id="rId1"/>
   </sheets>
 </workbook>
 </file>
